--- a/chatbot3_last/train_tools/qna/train_data_최종1.xlsx
+++ b/chatbot3_last/train_tools/qna/train_data_최종1.xlsx
@@ -2197,7 +2197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2229,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2238,10 +2238,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2583,10 +2589,10 @@
     <col min="2" max="2" style="3" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="57.86214285714286" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="75.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -2629,7 +2635,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -2668,7 +2674,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
         <v>145</v>
       </c>
@@ -2681,7 +2687,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -2694,7 +2700,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -2707,7 +2713,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
@@ -2720,7 +2726,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -2735,7 +2741,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
@@ -2765,7 +2771,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -2780,7 +2786,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -2795,7 +2801,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -2810,7 +2816,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -2825,7 +2831,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
@@ -2840,7 +2846,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="1" t="s">
         <v>165</v>
       </c>
@@ -2855,7 +2861,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -3939,7 +3945,7 @@
       <c r="A92" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="1" t="s">
         <v>302</v>
       </c>
